--- a/StructureDefinition-NatlDir-Network.xlsx
+++ b/StructureDefinition-NatlDir-Network.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T11:12:19-04:00</t>
+    <t>2021-10-29T10:58:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NatlDir-Network.xlsx
+++ b/StructureDefinition-NatlDir-Network.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="529">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T10:58:57-04:00</t>
+    <t>2021-11-17T10:46:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -235,13 +235,13 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
     <t>Mapping: ServD</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
@@ -762,15 +762,15 @@
     <t>Identifier.system</t>
   </si>
   <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
     <t>./IdentifierType</t>
   </si>
   <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
     <t>Organization.identifier.value</t>
   </si>
   <si>
@@ -789,13 +789,13 @@
     <t>Identifier.value</t>
   </si>
   <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
     <t>./Value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
   </si>
   <si>
     <t>Organization.identifier.period</t>
@@ -814,13 +814,13 @@
     <t>Identifier.period</t>
   </si>
   <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
     <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
     <t>Organization.identifier.assigner</t>
@@ -842,13 +842,13 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>NPI</t>
@@ -899,13 +899,13 @@
     <t>true</t>
   </si>
   <si>
+    <t>No equivalent in HL7 v2</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
     <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
-  </si>
-  <si>
-    <t>No equivalent in HL7 v2</t>
-  </si>
-  <si>
-    <t>.status</t>
   </si>
   <si>
     <t>FiveWs.status</t>
@@ -955,13 +955,13 @@
     <t>Need to use the name as the label of the organization.</t>
   </si>
   <si>
+    <t>XON.1</t>
+  </si>
+  <si>
+    <t>.name</t>
+  </si>
+  <si>
     <t>./PrimaryAddress and ./OtherAddresses</t>
-  </si>
-  <si>
-    <t>XON.1</t>
-  </si>
-  <si>
-    <t>.name</t>
   </si>
   <si>
     <t>Organization.alias</t>
@@ -1007,13 +1007,141 @@
 org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
+    <t>ORC-22?</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
     <t>./ContactPoints</t>
   </si>
   <si>
-    <t>ORC-22?</t>
-  </si>
-  <si>
-    <t>.telecom</t>
+    <t>Organization.telecom.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>Organization.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>Organization.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>Organization.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Organization.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>Organization.address</t>
@@ -1082,15 +1210,12 @@
     <t>Address.use</t>
   </si>
   <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
     <t>./AddressPurpose</t>
   </si>
   <si>
-    <t>XAD.7</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
     <t>Organization.address.type</t>
   </si>
   <si>
@@ -1163,13 +1288,13 @@
     <t>Address.line</t>
   </si>
   <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
     <t>./StreetAddress (newline delimitted)</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
   </si>
   <si>
     <t>Organization.address.city</t>
@@ -1191,13 +1316,13 @@
     <t>Address.city</t>
   </si>
   <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
     <t>./Jurisdiction</t>
-  </si>
-  <si>
-    <t>XAD.3</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
   </si>
   <si>
     <t>Organization.address.district</t>
@@ -1250,13 +1375,13 @@
     <t>Address.state</t>
   </si>
   <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
     <t>./Sites</t>
-  </si>
-  <si>
-    <t>XAD.4</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
   </si>
   <si>
     <t>Organization.address.postalCode</t>
@@ -1278,15 +1403,15 @@
     <t>Address.postalCode</t>
   </si>
   <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
     <t>./PostalIdentificationCode</t>
   </si>
   <si>
-    <t>XAD.5</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
     <t>Organization.address.country</t>
   </si>
   <si>
@@ -1302,15 +1427,15 @@
     <t>Address.country</t>
   </si>
   <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
     <t>./Country</t>
   </si>
   <si>
-    <t>XAD.6</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
     <t>Organization.address.period</t>
   </si>
   <si>
@@ -1324,8 +1449,8 @@
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23T00:00:00+11:00"/&gt;
-  &lt;end value="2010-07-01T00:00:00+10:00"/&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>
@@ -1333,9 +1458,6 @@
   </si>
   <si>
     <t>XAD.12 / XAD.13 + XAD.14</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>Organization.partOf</t>
@@ -1498,117 +1620,16 @@
     <t>Organization.contact.telecom.system</t>
   </si>
   <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./ContactPointType</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
     <t>Organization.contact.telecom.value</t>
   </si>
   <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
     <t>Organization.contact.telecom.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>./ContactPointPurpose</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
     <t>Organization.contact.telecom.rank</t>
   </si>
   <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
     <t>Organization.contact.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
   </si>
   <si>
     <t>Organization.contact.address</t>
@@ -1962,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AM74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2006,9 +2027,9 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="102.75" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="102.75" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="211.14453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2228,13 +2249,13 @@
         <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>76</v>
@@ -2560,10 +2581,10 @@
         <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>76</v>
@@ -2671,10 +2692,10 @@
         <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>76</v>
@@ -3670,10 +3691,10 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
@@ -3781,10 +3802,10 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -4112,10 +4133,10 @@
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -4220,13 +4241,13 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>209</v>
@@ -4332,10 +4353,10 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -4443,10 +4464,10 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4553,13 +4574,13 @@
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4666,13 +4687,13 @@
         <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -5223,19 +5244,19 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>209</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>199</v>
       </c>
@@ -5253,7 +5274,7 @@
         <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5336,13 +5357,13 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>209</v>
@@ -5562,13 +5583,13 @@
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>294</v>
@@ -5791,10 +5812,10 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5913,7 +5934,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>319</v>
       </c>
@@ -5929,7 +5950,7 @@
         <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5938,20 +5959,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>99</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5999,28 +6016,28 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="AL36" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -6028,18 +6045,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>76</v>
@@ -6051,15 +6068,17 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -6096,81 +6115,79 @@
         <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>76</v>
@@ -6195,58 +6212,58 @@
         <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>112</v>
+        <v>326</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>102</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>331</v>
       </c>
@@ -6262,16 +6279,16 @@
         <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>332</v>
@@ -6296,43 +6313,43 @@
         <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6347,13 +6364,13 @@
         <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6361,7 +6378,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6378,7 +6395,7 @@
         <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>86</v>
@@ -6387,15 +6404,17 @@
         <v>161</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6407,7 +6426,7 @@
         <v>76</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>347</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>76</v>
@@ -6422,10 +6441,10 @@
         <v>217</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>76</v>
@@ -6443,7 +6462,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6458,13 +6477,13 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6472,7 +6491,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6495,20 +6514,18 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>351</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>356</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6520,7 +6537,7 @@
         <v>76</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>76</v>
@@ -6556,7 +6573,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6571,21 +6588,21 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>359</v>
+        <v>102</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6596,10 +6613,10 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>362</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6608,13 +6625,13 @@
         <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>252</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6629,7 +6646,7 @@
         <v>76</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>365</v>
+        <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>76</v>
@@ -6665,13 +6682,13 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
@@ -6680,13 +6697,13 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>367</v>
+        <v>184</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>369</v>
+        <v>258</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6694,11 +6711,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6714,19 +6731,23 @@
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>362</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6738,7 +6759,7 @@
         <v>76</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>76</v>
@@ -6774,28 +6795,28 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>368</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>378</v>
+        <v>102</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6803,11 +6824,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>380</v>
+        <v>76</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6823,20 +6844,18 @@
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>381</v>
+        <v>99</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6849,7 +6868,7 @@
         <v>76</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>76</v>
@@ -6885,7 +6904,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>385</v>
+        <v>101</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6897,55 +6916,57 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>386</v>
+        <v>102</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>389</v>
+        <v>104</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>390</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6970,64 +6991,64 @@
         <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>393</v>
+        <v>76</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>394</v>
+        <v>112</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>396</v>
+        <v>102</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7037,25 +7058,29 @@
         <v>85</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
       </c>
@@ -7067,7 +7092,7 @@
         <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>76</v>
@@ -7079,13 +7104,13 @@
         <v>76</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>379</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>380</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>76</v>
@@ -7103,7 +7128,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7118,21 +7143,21 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7146,7 +7171,7 @@
         <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -7155,16 +7180,16 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7178,7 +7203,7 @@
         <v>76</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>76</v>
@@ -7190,13 +7215,13 @@
         <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>390</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -7214,7 +7239,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7229,13 +7254,13 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>414</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7243,7 +7268,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7266,17 +7291,19 @@
         <v>86</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>252</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="N48" t="s" s="2">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -7289,7 +7316,7 @@
         <v>76</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>76</v>
@@ -7325,7 +7352,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7340,13 +7367,13 @@
         <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>422</v>
+        <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7354,7 +7381,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7362,10 +7389,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>403</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>86</v>
@@ -7377,18 +7404,16 @@
         <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>424</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7400,7 +7425,7 @@
         <v>76</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>76</v>
@@ -7436,13 +7461,13 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
@@ -7451,13 +7476,13 @@
         <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>408</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>283</v>
+        <v>409</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7465,18 +7490,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>86</v>
@@ -7485,23 +7510,19 @@
         <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>430</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7513,7 +7534,7 @@
         <v>76</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>415</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>76</v>
@@ -7549,13 +7570,13 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
@@ -7564,13 +7585,13 @@
         <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>76</v>
+        <v>417</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7578,11 +7599,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>76</v>
+        <v>421</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7598,18 +7619,20 @@
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>99</v>
+        <v>422</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -7622,7 +7645,7 @@
         <v>76</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>76</v>
+        <v>425</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>76</v>
@@ -7658,7 +7681,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>101</v>
+        <v>426</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7670,57 +7693,55 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>427</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>104</v>
+        <v>430</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>106</v>
+        <v>431</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7745,13 +7766,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>433</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>434</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7769,72 +7790,68 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>112</v>
+        <v>435</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>436</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>437</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>102</v>
+        <v>438</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7846,7 +7863,7 @@
         <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>76</v>
@@ -7882,36 +7899,36 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>446</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>184</v>
+        <v>447</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7925,27 +7942,27 @@
         <v>85</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>76</v>
       </c>
@@ -7969,13 +7986,13 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>447</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>448</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -7993,7 +8010,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8008,21 +8025,21 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>76</v>
+        <v>453</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>76</v>
+        <v>454</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8036,26 +8053,26 @@
         <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>451</v>
+        <v>252</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -8068,7 +8085,7 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>76</v>
+        <v>460</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -8104,7 +8121,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8119,13 +8136,13 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>455</v>
+        <v>360</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>456</v>
+        <v>258</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8133,7 +8150,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8141,10 +8158,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>86</v>
@@ -8153,20 +8170,20 @@
         <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>309</v>
+        <v>464</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -8215,13 +8232,13 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
@@ -8230,21 +8247,21 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>462</v>
+        <v>102</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8255,10 +8272,10 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -8267,16 +8284,20 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>470</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>99</v>
+        <v>471</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8324,28 +8345,28 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>101</v>
+        <v>469</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>475</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8353,18 +8374,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>76</v>
@@ -8376,17 +8397,15 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -8423,40 +8442,40 @@
         <v>76</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8464,13 +8483,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8489,15 +8506,17 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>466</v>
+        <v>105</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>467</v>
+        <v>106</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -8564,7 +8583,7 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8575,13 +8594,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>76</v>
+        <v>479</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8594,22 +8611,26 @@
         <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>470</v>
+        <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8657,7 +8678,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>112</v>
+        <v>482</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8675,7 +8696,7 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8684,9 +8705,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8700,25 +8721,27 @@
         <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8742,13 +8765,13 @@
         <v>76</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>76</v>
@@ -8766,7 +8789,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8775,19 +8798,19 @@
         <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>479</v>
+        <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>480</v>
+        <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>482</v>
+        <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -8795,7 +8818,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8815,22 +8838,20 @@
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>491</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8879,7 +8900,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8894,21 +8915,21 @@
         <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>248</v>
+        <v>495</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>490</v>
+        <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8919,31 +8940,29 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>161</v>
+        <v>309</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -8968,37 +8987,37 @@
         <v>76</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>496</v>
+        <v>76</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE63" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>498</v>
-      </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -9007,13 +9026,13 @@
         <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9021,7 +9040,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9041,20 +9060,18 @@
         <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>502</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>503</v>
+        <v>99</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>76</v>
@@ -9103,7 +9120,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>506</v>
+        <v>101</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9115,7 +9132,7 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
@@ -9124,7 +9141,7 @@
         <v>102</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -9132,18 +9149,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>76</v>
@@ -9152,18 +9169,20 @@
         <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>252</v>
+        <v>105</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>508</v>
+        <v>106</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -9200,40 +9219,40 @@
         <v>76</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>510</v>
+        <v>112</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>422</v>
+        <v>76</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -9241,9 +9260,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B66" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="C66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9252,7 +9273,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>76</v>
@@ -9264,18 +9285,16 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>320</v>
+        <v>506</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>514</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9323,38 +9342,40 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>511</v>
+        <v>112</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>515</v>
+        <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>516</v>
+        <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9366,7 +9387,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -9375,18 +9396,16 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>521</v>
-      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9434,7 +9453,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>517</v>
+        <v>112</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9446,23 +9465,800 @@
         <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AI68" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AJ68" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AK71" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM67">
+  <autoFilter ref="A1:AM74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9472,7 +10268,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
